--- a/数据分析/平行志愿录取数据分析.xlsx
+++ b/数据分析/平行志愿录取数据分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Visualstudiotable\JAVA\java_work\数据分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FBB23A-0867-4391-BB53-526F4E7E783C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA7568F-D22C-4840-A260-3F449DC25351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,16 +154,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -448,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -470,29 +467,29 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="6" t="s">
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1267,7 +1264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -1406,27 +1403,27 @@
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
+      <c r="C27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -2096,40 +2093,40 @@
       <c r="F39" s="3">
         <v>720</v>
       </c>
-      <c r="G39" s="8">
-        <v>1</v>
-      </c>
-      <c r="H39" s="8">
-        <v>2</v>
-      </c>
-      <c r="I39" s="8">
-        <v>4</v>
-      </c>
-      <c r="J39" s="8">
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
+      <c r="H39" s="6">
+        <v>2</v>
+      </c>
+      <c r="I39" s="6">
+        <v>4</v>
+      </c>
+      <c r="J39" s="6">
         <v>700</v>
       </c>
-      <c r="K39" s="8">
-        <v>2</v>
-      </c>
-      <c r="L39" s="8">
-        <v>1</v>
-      </c>
-      <c r="M39" s="8">
-        <v>2</v>
-      </c>
-      <c r="N39" s="8">
-        <v>720</v>
-      </c>
-      <c r="O39" s="8">
-        <v>3</v>
-      </c>
-      <c r="P39" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="8">
-        <v>3</v>
-      </c>
-      <c r="R39" s="8">
+      <c r="K39" s="6">
+        <v>2</v>
+      </c>
+      <c r="L39" s="6">
+        <v>1</v>
+      </c>
+      <c r="M39" s="6">
+        <v>2</v>
+      </c>
+      <c r="N39" s="6">
+        <v>720</v>
+      </c>
+      <c r="O39" s="6">
+        <v>3</v>
+      </c>
+      <c r="P39" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>3</v>
+      </c>
+      <c r="R39" s="6">
         <v>690</v>
       </c>
     </row>
@@ -2321,10 +2318,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
-        <v>1</v>
-      </c>
-      <c r="B52" s="9">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1">
         <v>720</v>
       </c>
       <c r="C52" s="5">

--- a/数据分析/平行志愿录取数据分析.xlsx
+++ b/数据分析/平行志愿录取数据分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Visualstudiotable\JAVA\java_work\数据分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA7568F-D22C-4840-A260-3F449DC25351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F542A5E-2B43-4BD5-A671-DED48B98ED52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
